--- a/WebMarket/WebMarket/App_Data/Avr.xlsx
+++ b/WebMarket/WebMarket/App_Data/Avr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="403">
   <si>
     <t>570×315×235</t>
   </si>
@@ -1160,6 +1160,69 @@
   </si>
   <si>
     <t>СНПТО-11 HL</t>
+  </si>
+  <si>
+    <t>Luxeon AVR-500D White</t>
+  </si>
+  <si>
+    <t>Luxeon AVR-500 White</t>
+  </si>
+  <si>
+    <t>Luxeon SVR-2000VA White</t>
+  </si>
+  <si>
+    <t>Luxeon SVR-10000VA White</t>
+  </si>
+  <si>
+    <t>Luxeon SVR-10000VA SERVO White</t>
+  </si>
+  <si>
+    <t>Luxeon AVR-500D Black</t>
+  </si>
+  <si>
+    <t>Luxeon AVR-500 Black</t>
+  </si>
+  <si>
+    <t>Luxeon LDR-500VA Black</t>
+  </si>
+  <si>
+    <t>Luxeon SVR-1000VA Black</t>
+  </si>
+  <si>
+    <t>Luxeon SDR-1000 Black</t>
+  </si>
+  <si>
+    <t>Luxeon SDR-2000 Black</t>
+  </si>
+  <si>
+    <t>Luxeon SVR-2000VA Black</t>
+  </si>
+  <si>
+    <t>Luxeon SDR-3000 Black</t>
+  </si>
+  <si>
+    <t>Luxeon WDR-3000VA Black</t>
+  </si>
+  <si>
+    <t>Luxeon SVR-5000VA Black</t>
+  </si>
+  <si>
+    <t>Luxeon WDR-5000VA Black</t>
+  </si>
+  <si>
+    <t>Luxeon WDR-8000VA Black</t>
+  </si>
+  <si>
+    <t>Luxeon SVR-10000VA Black</t>
+  </si>
+  <si>
+    <t>Luxeon SDR-10000 Black</t>
+  </si>
+  <si>
+    <t>Luxeon WDR-10000VA Black</t>
+  </si>
+  <si>
+    <t>Luxeon SVR-10000VA SERVO Black</t>
   </si>
 </sst>
 </file>
@@ -1939,14 +2002,14 @@
   <dimension ref="A1:AO262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K258" sqref="K258"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S174" sqref="S174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
     <col min="20" max="20" width="11.85546875" customWidth="1"/>
   </cols>
@@ -5431,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>382</v>
       </c>
       <c r="F57" t="s">
         <v>103</v>
@@ -5471,7 +5534,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>387</v>
       </c>
       <c r="F58" t="s">
         <v>103</v>
@@ -5551,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>383</v>
       </c>
       <c r="F60" t="s">
         <v>103</v>
@@ -5591,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>114</v>
+        <v>388</v>
       </c>
       <c r="F61" t="s">
         <v>103</v>
@@ -5711,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
       <c r="F64" t="s">
         <v>103</v>
@@ -5967,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>124</v>
+        <v>390</v>
       </c>
       <c r="F71" t="s">
         <v>103</v>
@@ -6004,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>125</v>
+        <v>391</v>
       </c>
       <c r="F72" t="s">
         <v>103</v>
@@ -6158,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>129</v>
+        <v>392</v>
       </c>
       <c r="F76" t="s">
         <v>103</v>
@@ -6195,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>130</v>
+        <v>384</v>
       </c>
       <c r="F77" t="s">
         <v>103</v>
@@ -6232,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>131</v>
+        <v>393</v>
       </c>
       <c r="F78" t="s">
         <v>103</v>
@@ -6420,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>136</v>
+        <v>394</v>
       </c>
       <c r="F83" t="s">
         <v>103</v>
@@ -6534,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>139</v>
+        <v>395</v>
       </c>
       <c r="F86" t="s">
         <v>103</v>
@@ -6648,7 +6711,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>142</v>
+        <v>396</v>
       </c>
       <c r="F89" t="s">
         <v>103</v>
@@ -6722,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>144</v>
+        <v>397</v>
       </c>
       <c r="F91" t="s">
         <v>103</v>
@@ -6762,7 +6825,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>145</v>
+        <v>398</v>
       </c>
       <c r="F92" t="s">
         <v>103</v>
@@ -6802,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>146</v>
+        <v>385</v>
       </c>
       <c r="F93" t="s">
         <v>103</v>
@@ -6839,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>147</v>
+        <v>399</v>
       </c>
       <c r="F94" t="s">
         <v>103</v>
@@ -6950,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="F97" t="s">
         <v>103</v>
@@ -6987,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>151</v>
+        <v>401</v>
       </c>
       <c r="F98" t="s">
         <v>103</v>
@@ -7372,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>162</v>
+        <v>386</v>
       </c>
       <c r="F108" t="s">
         <v>103</v>
@@ -7409,7 +7472,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>163</v>
+        <v>402</v>
       </c>
       <c r="F109" t="s">
         <v>103</v>
